--- a/ATTENDANCE update.xlsx
+++ b/ATTENDANCE update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livestudentccc-my.sharepoint.com/personal/tdavis309_student_ccc_edu/Documents/Desktop/data analytics GC homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EE6CD0-2A03-427F-A532-2F36BCC345B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{45EE6CD0-2A03-427F-A532-2F36BCC345B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99DF4B8E-C315-4BB7-A95E-CC24E386A391}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A055F2D-0355-4833-8BE3-426F717ED424}"/>
   </bookViews>
@@ -230,7 +230,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Attendance Average</t>
+    <t>Monthly Attendance Average</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -774,27 +774,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,16 +783,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -854,7 +829,31 @@
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -1137,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590FAD9-10E8-4BA2-97D3-80B0365582D7}">
   <dimension ref="A1:AQ757"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1147,6 +1146,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="5" max="5" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.796875" style="6"/>
     <col min="13" max="13" width="9.296875" customWidth="1"/>
     <col min="14" max="14" width="10.69921875" bestFit="1" customWidth="1"/>
@@ -1161,10 +1161,11 @@
     <col min="31" max="32" width="9.296875" style="6" customWidth="1"/>
     <col min="33" max="33" width="9.296875" customWidth="1"/>
     <col min="35" max="35" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1180,11 +1181,11 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="63"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1198,8 +1199,8 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -1230,8 +1231,8 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -1240,16 +1241,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="17"/>
+      <c r="P3" s="66"/>
       <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1266,54 +1266,62 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
+      <c r="AK3" s="68" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J4"/>
       <c r="K4"/>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="18"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AK4" s="68"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J5"/>
       <c r="K5"/>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="18"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AK5" s="68"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="18"/>
+      <c r="P6" s="67"/>
       <c r="Q6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="X6"/>
       <c r="Y6"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AK6" s="69">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J7"/>
@@ -1321,316 +1329,309 @@
       <c r="P7" s="1"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E9" s="72">
-        <f>AVERAGE(E52,AI52)</f>
-        <v>0.75</v>
-      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="X9"/>
       <c r="Y9"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="X10"/>
       <c r="Y10"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
     </row>
     <row r="11" spans="1:41" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="X11"/>
       <c r="Y11"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
     </row>
     <row r="12" spans="1:41" s="7" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="E12" s="67" t="s">
+      <c r="B12" s="65"/>
+      <c r="E12" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="69"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="58"/>
     </row>
     <row r="13" spans="1:41" s="5" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="70">
+      <c r="E13" s="59">
         <v>1</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="59">
         <f>E13+1</f>
         <v>2</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="59">
         <f t="shared" ref="G13:AI13" si="0">F13+1</f>
         <v>3</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O13" s="70">
+      <c r="O13" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P13" s="70">
+      <c r="P13" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q13" s="70">
+      <c r="Q13" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R13" s="70">
+      <c r="R13" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S13" s="70">
+      <c r="S13" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T13" s="70">
+      <c r="T13" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U13" s="70">
+      <c r="U13" s="59">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V13" s="70">
+      <c r="V13" s="59">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W13" s="70">
+      <c r="W13" s="59">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X13" s="70">
+      <c r="X13" s="59">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y13" s="70">
+      <c r="Y13" s="59">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z13" s="70">
+      <c r="Z13" s="59">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA13" s="70">
+      <c r="AA13" s="59">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB13" s="70">
+      <c r="AB13" s="59">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC13" s="70">
+      <c r="AC13" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD13" s="70">
+      <c r="AD13" s="59">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE13" s="70">
+      <c r="AE13" s="59">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF13" s="70">
+      <c r="AF13" s="59">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG13" s="70">
+      <c r="AG13" s="59">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH13" s="70">
+      <c r="AH13" s="59">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI13" s="70">
+      <c r="AI13" s="59">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AL13" s="20" t="s">
+      <c r="AL13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AM13" s="23" t="s">
+      <c r="AM13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AN13" s="23" t="s">
+      <c r="AN13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AO13" s="19" t="s">
+      <c r="AO13" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39" t="s">
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="W14" s="39" t="s">
+      <c r="W14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39" t="s">
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AA14" s="39" t="s">
+      <c r="AA14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AB14" s="39" t="s">
+      <c r="AB14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AC14" s="39" t="s">
+      <c r="AC14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" s="39" t="s">
+      <c r="AD14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39" t="s">
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AH14" s="39" t="s">
+      <c r="AH14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AI14" s="39" t="s">
+      <c r="AI14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
       <c r="AO14" s="9"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1658,16 +1659,16 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
       <c r="AO15" s="9"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1741,28 +1742,28 @@
       <c r="AI16" t="s">
         <v>34</v>
       </c>
-      <c r="AL16" s="21">
-        <f>COUNTIF(E16:AI16,"P")</f>
+      <c r="AL16" s="14">
+        <f t="shared" ref="AL16:AL36" si="1">COUNTIF(E16:AI16,"P")</f>
         <v>23</v>
       </c>
-      <c r="AM16" s="21">
-        <f>COUNTIF(E16:AI16, "T")</f>
+      <c r="AM16" s="14">
+        <f t="shared" ref="AM16:AM36" si="2">COUNTIF(E16:AI16, "T")</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="21">
-        <f>COUNTIF(E16:AI16, "A")</f>
+      <c r="AN16" s="14">
+        <f t="shared" ref="AN16:AN36" si="3">COUNTIF(E16:AI16, "A")</f>
         <v>0</v>
       </c>
       <c r="AO16" s="9">
-        <f>COUNTIF(E16:AI16,"U")</f>
+        <f t="shared" ref="AO16:AO36" si="4">COUNTIF(E16:AI16,"U")</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1836,28 +1837,28 @@
       <c r="AI17" t="s">
         <v>34</v>
       </c>
-      <c r="AL17" s="21">
-        <f>COUNTIF(E17:AI17,"P")</f>
+      <c r="AL17" s="14">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AM17" s="21">
-        <f>COUNTIF(E17:AI17, "T")</f>
+      <c r="AM17" s="14">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AN17" s="21">
-        <f>COUNTIF(E17:AI17, "A")</f>
+      <c r="AN17" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO17" s="9">
-        <f>COUNTIF(E17:AI17,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1931,28 +1932,28 @@
       <c r="AI18" t="s">
         <v>34</v>
       </c>
-      <c r="AL18" s="21">
-        <f>COUNTIF(E18:AI18,"P")</f>
+      <c r="AL18" s="14">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AM18" s="21">
-        <f>COUNTIF(E18:AI18, "T")</f>
+      <c r="AM18" s="14">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AN18" s="21">
-        <f>COUNTIF(E18:AI18, "A")</f>
+      <c r="AN18" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO18" s="9">
-        <f>COUNTIF(E18:AI18,"U")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2026,28 +2027,28 @@
       <c r="AI19" t="s">
         <v>34</v>
       </c>
-      <c r="AL19" s="21">
-        <f>COUNTIF(E19:AI19,"P")</f>
+      <c r="AL19" s="14">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AM19" s="21">
-        <f>COUNTIF(E19:AI19, "T")</f>
+      <c r="AM19" s="14">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AN19" s="21">
-        <f>COUNTIF(E19:AI19, "A")</f>
+      <c r="AN19" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO19" s="9">
-        <f>COUNTIF(E19:AI19,"U")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2098,7 +2099,7 @@
         <v>34</v>
       </c>
       <c r="Z20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="s">
         <v>34</v>
@@ -2121,28 +2122,28 @@
       <c r="AI20" t="s">
         <v>34</v>
       </c>
-      <c r="AL20" s="21">
-        <f>COUNTIF(E20:AI20,"P")</f>
-        <v>12</v>
-      </c>
-      <c r="AM20" s="21">
-        <f>COUNTIF(E20:AI20, "T")</f>
+      <c r="AL20" s="14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AM20" s="14">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AN20" s="21">
-        <f>COUNTIF(E20:AI20, "A")</f>
-        <v>3</v>
+      <c r="AN20" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AO20" s="9">
-        <f>COUNTIF(E20:AI20,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2216,28 +2217,28 @@
       <c r="AI21" t="s">
         <v>34</v>
       </c>
-      <c r="AL21" s="21">
-        <f>COUNTIF(E21:AI21,"P")</f>
+      <c r="AL21" s="14">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AM21" s="21">
-        <f>COUNTIF(E21:AI21, "T")</f>
+      <c r="AM21" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AN21" s="21">
-        <f>COUNTIF(E21:AI21, "A")</f>
+      <c r="AN21" s="14">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AO21" s="9">
-        <f>COUNTIF(E21:AI21,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2311,28 +2312,28 @@
       <c r="AI22" t="s">
         <v>34</v>
       </c>
-      <c r="AL22" s="21">
-        <f>COUNTIF(E22:AI22,"P")</f>
+      <c r="AL22" s="14">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AM22" s="21">
-        <f>COUNTIF(E22:AI22, "T")</f>
+      <c r="AM22" s="14">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AN22" s="21">
-        <f>COUNTIF(E22:AI22, "A")</f>
+      <c r="AN22" s="14">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AO22" s="9">
-        <f>COUNTIF(E22:AI22,"U")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2406,28 +2407,28 @@
       <c r="AI23" t="s">
         <v>34</v>
       </c>
-      <c r="AL23" s="21">
-        <f>COUNTIF(E23:AI23,"P")</f>
+      <c r="AL23" s="14">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="AM23" s="21">
-        <f>COUNTIF(E23:AI23, "T")</f>
+      <c r="AM23" s="14">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AN23" s="21">
-        <f>COUNTIF(E23:AI23, "A")</f>
+      <c r="AN23" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO23" s="9">
-        <f>COUNTIF(E23:AI23,"U")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2501,28 +2502,28 @@
       <c r="AI24" t="s">
         <v>34</v>
       </c>
-      <c r="AL24" s="21">
-        <f>COUNTIF(E24:AI24,"P")</f>
+      <c r="AL24" s="14">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AM24" s="21">
-        <f>COUNTIF(E24:AI24, "T")</f>
+      <c r="AM24" s="14">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AN24" s="21">
-        <f>COUNTIF(E24:AI24, "A")</f>
+      <c r="AN24" s="14">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AO24" s="9">
-        <f>COUNTIF(E24:AI24,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2596,28 +2597,28 @@
       <c r="AI25" t="s">
         <v>34</v>
       </c>
-      <c r="AL25" s="21">
-        <f>COUNTIF(E25:AI25,"P")</f>
+      <c r="AL25" s="14">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="AM25" s="21">
-        <f>COUNTIF(E25:AI25, "T")</f>
+      <c r="AM25" s="14">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AN25" s="21">
-        <f>COUNTIF(E25:AI25, "A")</f>
+      <c r="AN25" s="14">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AO25" s="9">
-        <f>COUNTIF(E25:AI25,"U")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -2668,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="Z26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="s">
         <v>34</v>
@@ -2691,28 +2692,28 @@
       <c r="AI26" t="s">
         <v>34</v>
       </c>
-      <c r="AL26" s="21">
-        <f>COUNTIF(E26:AI26,"P")</f>
-        <v>18</v>
-      </c>
-      <c r="AM26" s="21">
-        <f>COUNTIF(E26:AI26, "T")</f>
+      <c r="AL26" s="14">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AM26" s="14">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AN26" s="21">
-        <f>COUNTIF(E26:AI26, "A")</f>
+      <c r="AN26" s="14">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AO26" s="9">
-        <f>COUNTIF(E26:AI26,"U")</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -2786,28 +2787,28 @@
       <c r="AI27" t="s">
         <v>34</v>
       </c>
-      <c r="AL27" s="21">
-        <f>COUNTIF(E27:AI27,"P")</f>
+      <c r="AL27" s="14">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AM27" s="21">
-        <f>COUNTIF(E27:AI27, "T")</f>
+      <c r="AM27" s="14">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AN27" s="21">
-        <f>COUNTIF(E27:AI27, "A")</f>
+      <c r="AN27" s="14">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AO27" s="9">
-        <f>COUNTIF(E27:AI27,"U")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -2881,28 +2882,28 @@
       <c r="AI28" t="s">
         <v>34</v>
       </c>
-      <c r="AL28" s="21">
-        <f>COUNTIF(E28:AI28,"P")</f>
+      <c r="AL28" s="14">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AM28" s="21">
-        <f>COUNTIF(E28:AI28, "T")</f>
+      <c r="AM28" s="14">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AN28" s="21">
-        <f>COUNTIF(E28:AI28, "A")</f>
+      <c r="AN28" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO28" s="9">
-        <f>COUNTIF(E28:AI28,"U")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -2976,28 +2977,28 @@
       <c r="AI29" t="s">
         <v>34</v>
       </c>
-      <c r="AL29" s="21">
-        <f>COUNTIF(E29:AI29,"P")</f>
+      <c r="AL29" s="14">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AM29" s="21">
-        <f>COUNTIF(E29:AI29, "T")</f>
+      <c r="AM29" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AN29" s="21">
-        <f>COUNTIF(E29:AI29, "A")</f>
+      <c r="AN29" s="14">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AO29" s="9">
-        <f>COUNTIF(E29:AI29,"U")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3071,28 +3072,28 @@
       <c r="AI30" t="s">
         <v>34</v>
       </c>
-      <c r="AL30" s="21">
-        <f>COUNTIF(E30:AI30,"P")</f>
+      <c r="AL30" s="14">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AM30" s="21">
-        <f>COUNTIF(E30:AI30, "T")</f>
+      <c r="AM30" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="21">
-        <f>COUNTIF(E30:AI30, "A")</f>
+      <c r="AN30" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO30" s="9">
-        <f>COUNTIF(E30:AI30,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -3166,28 +3167,28 @@
       <c r="AI31" t="s">
         <v>34</v>
       </c>
-      <c r="AL31" s="21">
-        <f>COUNTIF(E31:AI31,"P")</f>
+      <c r="AL31" s="14">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="AM31" s="21">
-        <f>COUNTIF(E31:AI31, "T")</f>
+      <c r="AM31" s="14">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AN31" s="21">
-        <f>COUNTIF(E31:AI31, "A")</f>
+      <c r="AN31" s="14">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AO31" s="9">
-        <f>COUNTIF(E31:AI31,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -3261,28 +3262,28 @@
       <c r="AI32" t="s">
         <v>34</v>
       </c>
-      <c r="AL32" s="21">
-        <f>COUNTIF(E32:AI32,"P")</f>
+      <c r="AL32" s="14">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="AM32" s="21">
-        <f>COUNTIF(E32:AI32, "T")</f>
+      <c r="AM32" s="14">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AN32" s="21">
-        <f>COUNTIF(E32:AI32, "A")</f>
+      <c r="AN32" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO32" s="9">
-        <f>COUNTIF(E32:AI32,"U")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -3356,28 +3357,28 @@
       <c r="AI33" t="s">
         <v>34</v>
       </c>
-      <c r="AL33" s="21">
-        <f>COUNTIF(E33:AI33,"P")</f>
+      <c r="AL33" s="14">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AM33" s="21">
-        <f>COUNTIF(E33:AI33, "T")</f>
+      <c r="AM33" s="14">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AN33" s="21">
-        <f>COUNTIF(E33:AI33, "A")</f>
+      <c r="AN33" s="14">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AO33" s="9">
-        <f>COUNTIF(E33:AI33,"U")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -3451,28 +3452,28 @@
       <c r="AI34" t="s">
         <v>34</v>
       </c>
-      <c r="AL34" s="21">
-        <f>COUNTIF(E34:AI34,"P")</f>
+      <c r="AL34" s="14">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AM34" s="21">
-        <f>COUNTIF(E34:AI34, "T")</f>
+      <c r="AM34" s="14">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AN34" s="21">
-        <f>COUNTIF(E34:AI34, "A")</f>
+      <c r="AN34" s="14">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AO34" s="9">
-        <f>COUNTIF(E34:AI34,"U")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -3546,28 +3547,28 @@
       <c r="AI35" t="s">
         <v>34</v>
       </c>
-      <c r="AL35" s="21">
-        <f>COUNTIF(E35:AI35,"P")</f>
+      <c r="AL35" s="14">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AM35" s="21">
-        <f>COUNTIF(E35:AI35, "T")</f>
+      <c r="AM35" s="14">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AN35" s="21">
-        <f>COUNTIF(E35:AI35, "A")</f>
+      <c r="AN35" s="14">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AO35" s="9">
-        <f>COUNTIF(E35:AI35,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -3641,26 +3642,26 @@
       <c r="AI36" t="s">
         <v>36</v>
       </c>
-      <c r="AL36" s="22">
-        <f>COUNTIF(E36:AI36,"P")</f>
+      <c r="AL36" s="15">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AM36" s="22">
-        <f>COUNTIF(E36:AI36, "T")</f>
+      <c r="AM36" s="15">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AN36" s="22">
-        <f>COUNTIF(E36:AI36, "A")</f>
+      <c r="AN36" s="15">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AO36" s="10">
-        <f>COUNTIF(E36:AI36,"U")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
@@ -3705,466 +3706,448 @@
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="38">
         <f>COUNTIF(E16:E36,"P")</f>
         <v>10</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="38">
         <f>COUNTIF(F16:F36,"P")</f>
         <v>12</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="38">
         <f>COUNTIF(G16:G36,"P")</f>
         <v>16</v>
       </c>
-      <c r="H48" s="49">
+      <c r="H48" s="38">
         <f>COUNTIF(H16:H36,"P")</f>
         <v>21</v>
       </c>
-      <c r="I48" s="50">
+      <c r="I48" s="39">
         <f>COUNTIF(I16:I36,"P")</f>
         <v>16</v>
       </c>
-      <c r="J48" s="42" t="s">
+      <c r="J48" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K48" s="43" t="s">
+      <c r="K48" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="51">
+      <c r="L48" s="40">
         <f>COUNTIF(L16:L36,"P")</f>
         <v>10</v>
       </c>
-      <c r="M48" s="49">
+      <c r="M48" s="38">
         <f>COUNTIF(M16:M36,"P")</f>
         <v>15</v>
       </c>
-      <c r="N48" s="49">
+      <c r="N48" s="38">
         <f>COUNTIF(N16:N36,"P")</f>
         <v>15</v>
       </c>
-      <c r="O48" s="49">
+      <c r="O48" s="38">
         <f>COUNTIF(O16:O36,"P")</f>
         <v>16</v>
       </c>
-      <c r="P48" s="50">
+      <c r="P48" s="39">
         <f>COUNTIF(P16:P36,"P")</f>
         <v>17</v>
       </c>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="51">
+      <c r="Q48" s="50"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="40">
         <f>COUNTIF(S16:S36,"P")</f>
         <v>11</v>
       </c>
-      <c r="T48" s="49">
+      <c r="T48" s="38">
         <f>COUNTIF(T16:T36,"P")</f>
         <v>13</v>
       </c>
-      <c r="U48" s="49">
+      <c r="U48" s="38">
         <f>COUNTIF(U16:U36,"P")</f>
         <v>17</v>
       </c>
-      <c r="V48" s="49">
+      <c r="V48" s="38">
         <f>COUNTIF(V16:V36,"P")</f>
         <v>15</v>
       </c>
-      <c r="W48" s="50">
+      <c r="W48" s="39">
         <f>COUNTIF(W16:W36,"P")</f>
         <v>14</v>
       </c>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="51">
+      <c r="X48" s="48"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="40">
         <f>COUNTIF(Z16:Z36,"P")</f>
-        <v>11</v>
-      </c>
-      <c r="AA48" s="49">
+        <v>13</v>
+      </c>
+      <c r="AA48" s="38">
         <f>COUNTIF(AA16:AA36,"P")</f>
         <v>20</v>
       </c>
-      <c r="AB48" s="49">
+      <c r="AB48" s="38">
         <f>COUNTIF(AB16:AB36,"P")</f>
         <v>13</v>
       </c>
-      <c r="AC48" s="49">
+      <c r="AC48" s="38">
         <f>COUNTIF(AC16:AC36,"P")</f>
         <v>15</v>
       </c>
-      <c r="AD48" s="50">
+      <c r="AD48" s="39">
         <f>COUNTIF(AD16:AD36,"P")</f>
         <v>15</v>
       </c>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="51">
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="40">
         <f>COUNTIF(AG16:AG36,"P")</f>
         <v>19</v>
       </c>
-      <c r="AH48" s="49">
+      <c r="AH48" s="38">
         <f>COUNTIF(AH16:AH36,"P")</f>
         <v>21</v>
       </c>
-      <c r="AI48" s="52">
+      <c r="AI48" s="41">
         <f>COUNTIF(AI16:AI36,"P")</f>
         <v>20</v>
       </c>
       <c r="AK48" s="11"/>
-      <c r="AM48" s="31"/>
-      <c r="AN48" s="71"/>
-      <c r="AO48" s="71"/>
-      <c r="AP48" s="71"/>
-      <c r="AQ48" s="71"/>
-    </row>
-    <row r="49" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D49" s="53" t="s">
+      <c r="AN48" s="60"/>
+      <c r="AO48" s="60"/>
+      <c r="AP48" s="60"/>
+      <c r="AQ48" s="60"/>
+    </row>
+    <row r="49" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D49" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="26">
         <f>COUNTIF(E16:E36,"T")</f>
         <v>3</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="26">
         <f>COUNTIF(F16:F36,"T")</f>
         <v>6</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="26">
         <f>COUNTIF(G16:G36,"T")</f>
         <v>1</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="26">
         <f>COUNTIF(H16:H36,"T")</f>
         <v>0</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="29">
         <f>COUNTIF(I16:I36,"T")</f>
         <v>5</v>
       </c>
-      <c r="J49" s="44" t="s">
+      <c r="J49" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="K49" s="45" t="s">
+      <c r="K49" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="41">
+      <c r="L49" s="30">
         <f>COUNTIF(L16:L36,"T")</f>
         <v>5</v>
       </c>
-      <c r="M49" s="37">
+      <c r="M49" s="26">
         <f>COUNTIF(M16:M36,"T")</f>
         <v>6</v>
       </c>
-      <c r="N49" s="37">
+      <c r="N49" s="26">
         <f>COUNTIF(N16:N36,"T")</f>
         <v>4</v>
       </c>
-      <c r="O49" s="37">
+      <c r="O49" s="26">
         <f>COUNTIF(O16:O36,"T")</f>
         <v>4</v>
       </c>
-      <c r="P49" s="40">
+      <c r="P49" s="29">
         <f>COUNTIF(P16:P36,"T")</f>
         <v>4</v>
       </c>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="41">
+      <c r="Q49" s="52"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="30">
         <f>COUNTIF(S16:S36,"T")</f>
         <v>3</v>
       </c>
-      <c r="T49" s="37">
+      <c r="T49" s="26">
         <f>COUNTIF(T16:T36,"T")</f>
         <v>5</v>
       </c>
-      <c r="U49" s="37">
+      <c r="U49" s="26">
         <f>COUNTIF(U16:U36,"T")</f>
         <v>2</v>
       </c>
-      <c r="V49" s="37">
+      <c r="V49" s="26">
         <f>COUNTIF(V16:V36,"T")</f>
         <v>5</v>
       </c>
-      <c r="W49" s="40">
+      <c r="W49" s="29">
         <f>COUNTIF(W16:W36,"T")</f>
         <v>7</v>
       </c>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="41">
+      <c r="X49" s="35"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="30">
         <f>COUNTIF(Z16:Z36,"T")</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="37">
+      <c r="AA49" s="26">
         <f>COUNTIF(AA16:AA36,"T")</f>
         <v>0</v>
       </c>
-      <c r="AB49" s="37">
+      <c r="AB49" s="26">
         <f>COUNTIF(AB16:AB36,"T")</f>
         <v>7</v>
       </c>
-      <c r="AC49" s="37">
+      <c r="AC49" s="26">
         <f>COUNTIF(AC16:AC36,"T")</f>
         <v>6</v>
       </c>
-      <c r="AD49" s="40">
+      <c r="AD49" s="29">
         <f>COUNTIF(AD16:AD36,"T")</f>
         <v>6</v>
       </c>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="41">
+      <c r="AG49" s="30">
         <f>COUNTIF(AG16:AG36,"T")</f>
         <v>1</v>
       </c>
-      <c r="AH49" s="37">
+      <c r="AH49" s="26">
         <f>COUNTIF(AH16:AH36,"T")</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="54">
+      <c r="AI49" s="43">
         <f>COUNTIF(AI16:AI36,"T")</f>
         <v>0</v>
       </c>
       <c r="AK49" s="11"/>
-      <c r="AM49" s="31"/>
-      <c r="AN49" s="71"/>
-      <c r="AO49" s="31"/>
-      <c r="AP49" s="31"/>
-      <c r="AQ49" s="31"/>
-    </row>
-    <row r="50" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D50" s="53" t="s">
+      <c r="AN49" s="60"/>
+    </row>
+    <row r="50" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D50" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="26">
         <f>COUNTIF(E16:E36,"A")</f>
         <v>5</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="26">
         <f>COUNTIF(F16:F36,"A")</f>
         <v>1</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="26">
         <f>COUNTIF(G16:G36,"A")</f>
         <v>3</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="26">
         <f>COUNTIF(H16:H36,"A")</f>
         <v>0</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="29">
         <f>COUNTIF(I16:I36,"A")</f>
         <v>0</v>
       </c>
-      <c r="J50" s="46" t="s">
+      <c r="J50" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="K50" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L50" s="41">
+      <c r="L50" s="30">
         <f>COUNTIF(L16:L36,"A")</f>
         <v>3</v>
       </c>
-      <c r="M50" s="37">
+      <c r="M50" s="26">
         <f>COUNTIF(M16:M36,"A")</f>
         <v>0</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="26">
         <f>COUNTIF(N16:N36,"A")</f>
         <v>1</v>
       </c>
-      <c r="O50" s="37">
+      <c r="O50" s="26">
         <f>COUNTIF(O16:O36,"A")</f>
         <v>1</v>
       </c>
-      <c r="P50" s="40">
+      <c r="P50" s="29">
         <f>COUNTIF(P16:P36,"A")</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="41">
+      <c r="Q50" s="52"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="30">
         <f>COUNTIF(S16:S36,"A")</f>
         <v>3</v>
       </c>
-      <c r="T50" s="37">
+      <c r="T50" s="26">
         <f>COUNTIF(T16:T36,"A")</f>
         <v>1</v>
       </c>
-      <c r="U50" s="37">
+      <c r="U50" s="26">
         <f>COUNTIF(U16:U36,"A")</f>
         <v>1</v>
       </c>
-      <c r="V50" s="37">
+      <c r="V50" s="26">
         <f>COUNTIF(V16:V36,"A")</f>
         <v>1</v>
       </c>
-      <c r="W50" s="40">
+      <c r="W50" s="29">
         <f>COUNTIF(W16:W36,"A")</f>
         <v>0</v>
       </c>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="41">
+      <c r="X50" s="35"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="30">
         <f>COUNTIF(Z16:Z36,"A")</f>
-        <v>4</v>
-      </c>
-      <c r="AA50" s="37">
+        <v>3</v>
+      </c>
+      <c r="AA50" s="26">
         <f>COUNTIF(AA16:AA36,"A")</f>
         <v>0</v>
       </c>
-      <c r="AB50" s="37">
+      <c r="AB50" s="26">
         <f>COUNTIF(AB16:AB36,"A")</f>
         <v>0</v>
       </c>
-      <c r="AC50" s="37">
+      <c r="AC50" s="26">
         <f>COUNTIF(AC16:AC36,"A")</f>
         <v>0</v>
       </c>
-      <c r="AD50" s="40">
+      <c r="AD50" s="29">
         <f>COUNTIF(AD16:AD36,"A")</f>
         <v>0</v>
       </c>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="41">
+      <c r="AG50" s="30">
         <f>COUNTIF(AG16:AG36,"A")</f>
         <v>1</v>
       </c>
-      <c r="AH50" s="37">
+      <c r="AH50" s="26">
         <f>COUNTIF(AH16:AH36,"A")</f>
         <v>0</v>
       </c>
-      <c r="AI50" s="54">
+      <c r="AI50" s="43">
         <f>COUNTIF(AI16:AI36,"A")</f>
         <v>1</v>
       </c>
       <c r="AK50" s="11"/>
-      <c r="AM50" s="31"/>
-      <c r="AN50" s="71"/>
-      <c r="AO50" s="31"/>
-      <c r="AP50" s="31"/>
-      <c r="AQ50" s="31"/>
-    </row>
-    <row r="51" spans="4:43" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="55" t="s">
+      <c r="AN50" s="60"/>
+    </row>
+    <row r="51" spans="4:40" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="27">
         <f>COUNTIF(E16:E36,"U")</f>
         <v>3</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="27">
         <f>COUNTIF(F16:F36,"U")</f>
         <v>2</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="27">
         <f>COUNTIF(G16:G36,"U")</f>
         <v>1</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="27">
         <f>COUNTIF(H16:H36,"U")</f>
         <v>0</v>
       </c>
-      <c r="I51" s="56">
+      <c r="I51" s="45">
         <f>COUNTIF(I16:I36,"U")</f>
         <v>0</v>
       </c>
-      <c r="J51" s="47" t="s">
+      <c r="J51" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="L51" s="57">
+      <c r="L51" s="46">
         <f>COUNTIF(L16:L36,"U")</f>
         <v>3</v>
       </c>
-      <c r="M51" s="38">
+      <c r="M51" s="27">
         <f>COUNTIF(M16:M36,"U")</f>
         <v>0</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N51" s="27">
         <f>COUNTIF(N16:N36,"U")</f>
         <v>1</v>
       </c>
-      <c r="O51" s="38">
+      <c r="O51" s="27">
         <f>COUNTIF(O16:O36,"U")</f>
         <v>0</v>
       </c>
-      <c r="P51" s="56">
+      <c r="P51" s="45">
         <f>COUNTIF(P16:P36,"U")</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="57">
+      <c r="Q51" s="54"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="46">
         <f>COUNTIF(S16:S36,"U")</f>
         <v>4</v>
       </c>
-      <c r="T51" s="38">
+      <c r="T51" s="27">
         <f>COUNTIF(T16:T36,"U")</f>
         <v>2</v>
       </c>
-      <c r="U51" s="38">
+      <c r="U51" s="27">
         <f>COUNTIF(U16:U36,"U")</f>
         <v>1</v>
       </c>
-      <c r="V51" s="38">
+      <c r="V51" s="27">
         <f>COUNTIF(V16:V36,"U")</f>
         <v>0</v>
       </c>
-      <c r="W51" s="56">
+      <c r="W51" s="45">
         <f>COUNTIF(W16:W36,"U")</f>
         <v>0</v>
       </c>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="57">
+      <c r="X51" s="36"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="46">
         <f>COUNTIF(Z16:Z36,"U")</f>
-        <v>3</v>
-      </c>
-      <c r="AA51" s="38">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="27">
         <f>COUNTIF(AA16:AA36,"U")</f>
         <v>1</v>
       </c>
-      <c r="AB51" s="38">
+      <c r="AB51" s="27">
         <f>COUNTIF(AB16:AB36,"U")</f>
         <v>1</v>
       </c>
-      <c r="AC51" s="38">
+      <c r="AC51" s="27">
         <f>COUNTIF(AC16:AC36,"U")</f>
         <v>0</v>
       </c>
-      <c r="AD51" s="56">
+      <c r="AD51" s="45">
         <f>COUNTIF(AD16:AD36,"U")</f>
         <v>0</v>
       </c>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="57">
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="24"/>
+      <c r="AG51" s="46">
         <f>COUNTIF(AG16:AG36,"U")</f>
         <v>0</v>
       </c>
-      <c r="AH51" s="38">
+      <c r="AH51" s="27">
         <f>COUNTIF(AH16:AH36,"U")</f>
         <v>0</v>
       </c>
-      <c r="AI51" s="58">
+      <c r="AI51" s="47">
         <f>COUNTIF(AI16:AI36,"U")</f>
         <v>0</v>
       </c>
       <c r="AK51" s="11"/>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31"/>
-      <c r="AQ51" s="31"/>
-    </row>
-    <row r="52" spans="4:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="4:40" x14ac:dyDescent="0.25">
       <c r="E52" s="11">
         <f>((E48*1) + (E49 * 0.5 )) / 21</f>
         <v>0.54761904761904767</v>
@@ -4174,117 +4157,107 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G52" s="11">
-        <f t="shared" ref="G52:AI52" si="1">((G48*1) + (G49 * 0.5 )) / 21</f>
+        <f t="shared" ref="G52:AI52" si="5">((G48*1) + (G49 * 0.5 )) / 21</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="H52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.88095238095238093</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.59523809523809523</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.59523809523809523</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.73809523809523814</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="W52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11">
-        <f t="shared" si="1"/>
-        <v>0.59523809523809523</v>
+        <f t="shared" si="5"/>
+        <v>0.69047619047619047</v>
       </c>
       <c r="AA52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="AB52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="AC52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AD52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
       <c r="AG52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="AH52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AI52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="AM52" s="31"/>
-      <c r="AN52" s="31"/>
-      <c r="AO52" s="31"/>
-      <c r="AP52" s="31"/>
-      <c r="AQ52" s="31"/>
-    </row>
-    <row r="53" spans="4:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J53"/>
       <c r="K53"/>
       <c r="X53"/>
       <c r="Y53"/>
       <c r="AE53"/>
       <c r="AF53"/>
-      <c r="AM53" s="31"/>
-      <c r="AN53" s="31"/>
-      <c r="AO53" s="31"/>
-      <c r="AP53" s="31"/>
-      <c r="AQ53" s="31"/>
-    </row>
-    <row r="54" spans="4:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J54"/>
       <c r="K54"/>
       <c r="X54"/>
@@ -4292,7 +4265,7 @@
       <c r="AE54"/>
       <c r="AF54"/>
     </row>
-    <row r="55" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J55"/>
       <c r="K55"/>
       <c r="X55"/>
@@ -4300,7 +4273,7 @@
       <c r="AE55"/>
       <c r="AF55"/>
     </row>
-    <row r="56" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J56"/>
       <c r="K56"/>
       <c r="X56"/>
@@ -4308,7 +4281,7 @@
       <c r="AE56"/>
       <c r="AF56"/>
     </row>
-    <row r="57" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J57"/>
       <c r="K57"/>
       <c r="X57"/>
@@ -4316,7 +4289,7 @@
       <c r="AE57"/>
       <c r="AF57"/>
     </row>
-    <row r="58" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J58"/>
       <c r="K58"/>
       <c r="X58"/>
@@ -4324,7 +4297,7 @@
       <c r="AE58"/>
       <c r="AF58"/>
     </row>
-    <row r="59" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J59"/>
       <c r="K59"/>
       <c r="X59"/>
@@ -4332,7 +4305,7 @@
       <c r="AE59"/>
       <c r="AF59"/>
     </row>
-    <row r="60" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J60"/>
       <c r="K60"/>
       <c r="X60"/>
@@ -4340,7 +4313,7 @@
       <c r="AE60"/>
       <c r="AF60"/>
     </row>
-    <row r="61" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J61"/>
       <c r="K61"/>
       <c r="X61"/>
@@ -4348,7 +4321,7 @@
       <c r="AE61"/>
       <c r="AF61"/>
     </row>
-    <row r="62" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J62"/>
       <c r="K62"/>
       <c r="X62"/>
@@ -4356,7 +4329,7 @@
       <c r="AE62"/>
       <c r="AF62"/>
     </row>
-    <row r="63" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J63"/>
       <c r="K63"/>
       <c r="X63"/>
@@ -4364,7 +4337,7 @@
       <c r="AE63"/>
       <c r="AF63"/>
     </row>
-    <row r="64" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:40" x14ac:dyDescent="0.25">
       <c r="J64"/>
       <c r="K64"/>
       <c r="X64"/>
@@ -5069,7 +5042,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B45:C48">
     <sortCondition ref="B45:B48"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="O3:P3"/>
@@ -5092,14 +5066,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="32670a14-4220-4da1-96f0-a1e2bcae1218" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100627F63FC4E98BC48ACCDC2159DB0ADAE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93e01f86d81f8c5f7e4a3a6ac193513d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="32670a14-4220-4da1-96f0-a1e2bcae1218" xmlns:ns4="26b77b89-8c29-48bb-85f3-d9c50cb7edf3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b250e1f09ce15aa7d972babb3ec8c3df" ns3:_="" ns4:_="">
     <xsd:import namespace="32670a14-4220-4da1-96f0-a1e2bcae1218"/>
@@ -5288,6 +5254,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="32670a14-4220-4da1-96f0-a1e2bcae1218" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD86F47-52EF-4B8A-8D9C-B0DE8266A5C5}">
   <ds:schemaRefs>
@@ -5297,23 +5271,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD58DEB-AAEC-4E51-B095-A0FF0CD0F417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="26b77b89-8c29-48bb-85f3-d9c50cb7edf3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="32670a14-4220-4da1-96f0-a1e2bcae1218"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57F13AC4-51D6-45B4-83E3-E25FEDCD6D2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5330,4 +5287,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD58DEB-AAEC-4E51-B095-A0FF0CD0F417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="26b77b89-8c29-48bb-85f3-d9c50cb7edf3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="32670a14-4220-4da1-96f0-a1e2bcae1218"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>